--- a/simone/data/colors.xlsx
+++ b/simone/data/colors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>full_name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>measured_scene_l</t>
+  </si>
+  <si>
+    <t>wall_minus_scene_l</t>
   </si>
   <si>
     <t>name</t>
@@ -602,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -648,13 +651,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -683,13 +689,16 @@
       <c r="M2">
         <v>34.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -718,13 +727,16 @@
       <c r="M3">
         <v>33.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -753,13 +765,16 @@
       <c r="M4">
         <v>34.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -791,13 +806,16 @@
       <c r="M5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -832,13 +850,16 @@
       <c r="M6">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -873,13 +894,16 @@
       <c r="M7">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>-9.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -914,13 +938,16 @@
       <c r="M8">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>-8.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -955,13 +982,16 @@
       <c r="M9">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -996,13 +1026,16 @@
       <c r="M10">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1037,13 +1070,16 @@
       <c r="M11">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1078,13 +1114,16 @@
       <c r="M12">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1119,13 +1158,16 @@
       <c r="M13">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>-4.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1160,13 +1202,16 @@
       <c r="M14">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1201,13 +1246,16 @@
       <c r="M15">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1242,13 +1290,16 @@
       <c r="M16">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1283,13 +1334,16 @@
       <c r="M17">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>-0.800000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1324,13 +1378,16 @@
       <c r="M18">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.300000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1365,13 +1422,16 @@
       <c r="M19">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1406,13 +1466,16 @@
       <c r="M20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1447,13 +1510,16 @@
       <c r="M21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1488,13 +1554,16 @@
       <c r="M22">
         <v>33.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1529,13 +1598,16 @@
       <c r="M23">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1570,13 +1642,16 @@
       <c r="M24">
         <v>34.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1611,13 +1686,16 @@
       <c r="M25">
         <v>34.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1652,13 +1730,16 @@
       <c r="M26">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1693,13 +1774,16 @@
       <c r="M27">
         <v>37.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>9.59999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1734,13 +1818,16 @@
       <c r="M28">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1775,13 +1862,16 @@
       <c r="M29">
         <v>39.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1816,13 +1906,16 @@
       <c r="M30">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1857,13 +1950,16 @@
       <c r="M31">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1898,13 +1994,16 @@
       <c r="M32">
         <v>44.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1938,6 +2037,9 @@
       </c>
       <c r="M33">
         <v>45.9</v>
+      </c>
+      <c r="N33">
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
